--- a/Raw_extracted_data.xlsx
+++ b/Raw_extracted_data.xlsx
@@ -387,7 +387,7 @@
     <t>20.1 to 32.5</t>
   </si>
   <si>
-    <t>g.tec</t>
+    <t>g.HIamp</t>
   </si>
   <si>
     <t>N 50Hz BP 0.5-200Hz</t>
